--- a/SimOperatingPoint/TestSingleGfm.xlsx
+++ b/SimOperatingPoint/TestSingleGfm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\TestSynchronDuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\SimOperatingPoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1770E6-23B8-4307-8650-CD1B51EFEA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392E47E5-8B52-4AA5-BEFD-F90E5AAE95C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="F6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
